--- a/data/trans_dic/IP09B01-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP09B01-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>57,86; 100,0</t>
+          <t>57,71; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>33,15; 82,28</t>
+          <t>33,94; 81,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,47 +739,47 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>44,0; 88,93</t>
+          <t>40,07; 88,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>36,74; 92,04</t>
+          <t>37,44; 92,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>35,69; 78,15</t>
+          <t>34,74; 79,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,83; 89,89</t>
+          <t>19,59; 90,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>35,27; 100,0</t>
+          <t>32,88; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>58,35; 91,99</t>
+          <t>59,03; 91,27</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>41,59; 74,78</t>
+          <t>40,76; 73,52</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>19,0; 76,45</t>
+          <t>19,38; 76,34</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>49,36; 87,67</t>
+          <t>50,67; 88,62</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>50,16; 70,81</t>
+          <t>51,49; 72,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>55,29; 74,12</t>
+          <t>54,42; 72,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>44,57; 70,86</t>
+          <t>44,15; 71,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>52,71; 78,69</t>
+          <t>53,51; 78,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>47,22; 76,13</t>
+          <t>46,88; 76,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>54,72; 75,33</t>
+          <t>55,27; 75,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>39,45; 68,41</t>
+          <t>40,51; 68,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>63,95; 86,38</t>
+          <t>63,63; 86,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>53,07; 70,35</t>
+          <t>52,93; 70,35</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>57,33; 72,12</t>
+          <t>57,54; 71,61</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>47,39; 66,23</t>
+          <t>47,59; 67,29</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>60,52; 78,67</t>
+          <t>61,78; 78,7</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>55,14; 86,09</t>
+          <t>54,97; 86,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>35,47; 76,11</t>
+          <t>35,29; 73,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>31,37; 79,47</t>
+          <t>32,39; 79,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>49,85; 88,13</t>
+          <t>53,05; 88,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>48,29; 86,33</t>
+          <t>48,4; 86,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>47,78; 87,27</t>
+          <t>48,36; 87,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>26,25; 75,04</t>
+          <t>28,71; 75,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>46,1; 83,53</t>
+          <t>41,35; 80,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>57,12; 82,21</t>
+          <t>58,26; 82,52</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>47,59; 73,85</t>
+          <t>46,57; 74,91</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>37,6; 72,39</t>
+          <t>37,11; 71,66</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>57,25; 81,93</t>
+          <t>55,76; 80,69</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>58,22; 75,23</t>
+          <t>58,56; 75,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>52,55; 69,25</t>
+          <t>53,24; 70,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>45,35; 67,82</t>
+          <t>45,7; 68,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>58,01; 76,22</t>
+          <t>57,56; 77,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>54,33; 75,04</t>
+          <t>54,53; 75,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>56,62; 73,63</t>
+          <t>55,43; 72,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>42,93; 66,61</t>
+          <t>42,09; 66,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>63,65; 82,22</t>
+          <t>63,35; 82,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>59,38; 73,1</t>
+          <t>60,22; 72,57</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>56,37; 68,87</t>
+          <t>56,93; 68,88</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>47,28; 63,4</t>
+          <t>47,38; 64,13</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>62,91; 76,79</t>
+          <t>63,14; 77,39</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP09B01-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP09B01-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,13 +534,13 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores que les afecta al nivel de asistencia al cole/guardería dicha enfermedad, dolencia..</t>
+          <t>Menores según si dicha enfermedad o dolencia continuada le ha afectado al nivel de asistencia al cole/guardería</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,42 +656,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>67,25%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>57,66%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>63,92%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>85,71%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>85,48%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>59,25%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>23,23%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>69,71%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>67,25%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>57,66%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>63,92%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>77,63%</t>
+          <t>68,63%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>72,76%</t>
+          <t>76,53%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>57,71; 100,0</t>
+          <t>37,6; 92,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>33,94; 81,88</t>
+          <t>31,07; 77,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 74,83</t>
+          <t>20,22; 90,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>40,07; 88,83</t>
+          <t>36,98; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>37,44; 92,12</t>
+          <t>56,21; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>34,74; 79,05</t>
+          <t>33,78; 82,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>19,59; 90,04</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>32,88; 100,0</t>
+          <t>38,22; 90,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>59,03; 91,27</t>
+          <t>56,62; 89,72</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>40,76; 73,52</t>
+          <t>42,01; 73,44</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>19,38; 76,34</t>
+          <t>19,63; 77,61</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>50,67; 88,62</t>
+          <t>54,96; 93,59</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>62,29%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>65,56%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>54,89%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>77,52%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>61,87%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>63,76%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>59,1%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>65,65%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>62,29%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>65,56%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>54,89%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>76,7%</t>
+          <t>68,33%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>69,98%</t>
+          <t>71,67%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>51,49; 72,12</t>
+          <t>47,17; 75,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>54,42; 72,68</t>
+          <t>53,44; 74,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>44,15; 71,44</t>
+          <t>39,09; 69,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>53,51; 78,17</t>
+          <t>65,01; 86,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>46,88; 76,22</t>
+          <t>51,37; 73,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>55,27; 75,61</t>
+          <t>54,03; 72,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>40,51; 68,78</t>
+          <t>46,11; 71,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>63,63; 86,7</t>
+          <t>55,51; 82,61</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>52,93; 70,35</t>
+          <t>53,19; 70,36</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>57,54; 71,61</t>
+          <t>57,4; 71,65</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>47,59; 67,29</t>
+          <t>48,01; 67,46</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>61,78; 78,7</t>
+          <t>62,32; 81,58</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>69,73%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>69,73%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>52,71%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>66,05%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>72,26%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>55,8%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>58,2%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>72,93%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>69,73%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>69,73%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>52,71%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>65,19%</t>
+          <t>72,03%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>54,97; 86,18</t>
+          <t>46,39; 86,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>35,29; 73,18</t>
+          <t>47,58; 86,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>32,39; 79,26</t>
+          <t>29,51; 76,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>53,05; 88,05</t>
+          <t>45,02; 82,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>48,4; 86,79</t>
+          <t>53,86; 86,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>48,36; 87,26</t>
+          <t>35,98; 74,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>28,71; 75,02</t>
+          <t>32,77; 85,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>41,35; 80,83</t>
+          <t>48,9; 88,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>58,26; 82,52</t>
+          <t>57,42; 83,6</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>46,57; 74,91</t>
+          <t>47,19; 73,5</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>37,11; 71,66</t>
+          <t>36,89; 70,92</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>55,76; 80,69</t>
+          <t>55,49; 81,58</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>65,34%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>65,11%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>55,21%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>75,73%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>67,38%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>61,63%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>56,99%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>67,8%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>65,34%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>65,11%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>55,21%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>73,61%</t>
+          <t>69,19%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>70,15%</t>
+          <t>71,75%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>58,56; 75,08</t>
+          <t>54,32; 74,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>53,24; 70,2</t>
+          <t>55,68; 73,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>45,7; 68,24</t>
+          <t>42,92; 66,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>57,56; 77,02</t>
+          <t>65,69; 83,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>54,53; 75,3</t>
+          <t>58,47; 75,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>55,43; 72,95</t>
+          <t>54,12; 70,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>42,09; 66,67</t>
+          <t>45,52; 68,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>63,35; 82,52</t>
+          <t>59,11; 79,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>60,22; 72,57</t>
+          <t>60,18; 73,77</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>56,93; 68,88</t>
+          <t>56,92; 68,92</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>47,38; 64,13</t>
+          <t>47,09; 63,67</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>63,14; 77,39</t>
+          <t>64,47; 79,49</t>
         </is>
       </c>
     </row>
